--- a/Code/Results/Cases/Case_5_179/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_179/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.01942559813395</v>
+        <v>0.5971311412731666</v>
       </c>
       <c r="C2">
-        <v>0.1273511953257298</v>
+        <v>0.1924353492520439</v>
       </c>
       <c r="D2">
-        <v>0.07010854657241339</v>
+        <v>0.05269701357153878</v>
       </c>
       <c r="E2">
-        <v>0.0574121349599821</v>
+        <v>0.1283788784727946</v>
       </c>
       <c r="F2">
-        <v>0.6156573393350655</v>
+        <v>1.056645474702485</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8438568517781277</v>
+        <v>0.2977978958269034</v>
       </c>
       <c r="L2">
-        <v>0.1482480226075324</v>
+        <v>0.190895431617605</v>
       </c>
       <c r="M2">
-        <v>0.2158515529872957</v>
+        <v>0.1672341601680039</v>
       </c>
       <c r="N2">
-        <v>0.9821341873215275</v>
+        <v>2.058920891053223</v>
       </c>
       <c r="O2">
-        <v>1.929367056215398</v>
+        <v>3.807783358460938</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8881987070052162</v>
+        <v>0.5617636639494776</v>
       </c>
       <c r="C3">
-        <v>0.125717389357618</v>
+        <v>0.191872575847384</v>
       </c>
       <c r="D3">
-        <v>0.06464038686139162</v>
+        <v>0.05072020775980945</v>
       </c>
       <c r="E3">
-        <v>0.05646482117069596</v>
+        <v>0.1288173709433948</v>
       </c>
       <c r="F3">
-        <v>0.5898742027532364</v>
+        <v>1.056773709657563</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7337021563860446</v>
+        <v>0.2653995575083883</v>
       </c>
       <c r="L3">
-        <v>0.1346243956155817</v>
+        <v>0.1883031288399621</v>
       </c>
       <c r="M3">
-        <v>0.1895840267461821</v>
+        <v>0.1606412002114723</v>
       </c>
       <c r="N3">
-        <v>1.026754031135606</v>
+        <v>2.078227358966036</v>
       </c>
       <c r="O3">
-        <v>1.891629684954609</v>
+        <v>3.821891200383789</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8080062476840908</v>
+        <v>0.5402721185319876</v>
       </c>
       <c r="C4">
-        <v>0.1247284170668657</v>
+        <v>0.1915311518114606</v>
       </c>
       <c r="D4">
-        <v>0.06126547355976442</v>
+        <v>0.04949122407793993</v>
       </c>
       <c r="E4">
-        <v>0.05595436409313059</v>
+        <v>0.129133568108367</v>
       </c>
       <c r="F4">
-        <v>0.5750513701978619</v>
+        <v>1.057390381254947</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6661731351187115</v>
+        <v>0.2455342934937903</v>
       </c>
       <c r="L4">
-        <v>0.1264087132188934</v>
+        <v>0.1868017948968799</v>
       </c>
       <c r="M4">
-        <v>0.173579313679376</v>
+        <v>0.1566671286469159</v>
       </c>
       <c r="N4">
-        <v>1.055313548735624</v>
+        <v>2.090690007393814</v>
       </c>
       <c r="O4">
-        <v>1.871719921676984</v>
+        <v>3.832331535255662</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7754102231480999</v>
+        <v>0.5315711090177047</v>
       </c>
       <c r="C5">
-        <v>0.124328863379251</v>
+        <v>0.1913930744882997</v>
       </c>
       <c r="D5">
-        <v>0.0598855656754651</v>
+        <v>0.04898659570405783</v>
       </c>
       <c r="E5">
-        <v>0.05576371956357562</v>
+        <v>0.1292742507470468</v>
       </c>
       <c r="F5">
-        <v>0.5692529531781574</v>
+        <v>1.057777067769464</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6386717524822814</v>
+        <v>0.237446367137494</v>
       </c>
       <c r="L5">
-        <v>0.1230960281359046</v>
+        <v>0.1862127748919349</v>
       </c>
       <c r="M5">
-        <v>0.1670853668222527</v>
+        <v>0.155066396244159</v>
       </c>
       <c r="N5">
-        <v>1.067238092919418</v>
+        <v>2.095921657825531</v>
       </c>
       <c r="O5">
-        <v>1.864393331766635</v>
+        <v>3.837033474484059</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7700023311660118</v>
+        <v>0.5301297710824713</v>
       </c>
       <c r="C6">
-        <v>0.1242627238215874</v>
+        <v>0.1913702111909501</v>
       </c>
       <c r="D6">
-        <v>0.05965614885461434</v>
+        <v>0.04890257313589075</v>
       </c>
       <c r="E6">
-        <v>0.05573309720695185</v>
+        <v>0.1292983260959915</v>
       </c>
       <c r="F6">
-        <v>0.5683044209408337</v>
+        <v>1.057849457388812</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6341059416019021</v>
+        <v>0.2361038284507799</v>
       </c>
       <c r="L6">
-        <v>0.1225480254168971</v>
+        <v>0.1861163467264291</v>
       </c>
       <c r="M6">
-        <v>0.1660086646620549</v>
+        <v>0.1548017308077547</v>
       </c>
       <c r="N6">
-        <v>1.069235274408159</v>
+        <v>2.096799612436002</v>
       </c>
       <c r="O6">
-        <v>1.863223334880786</v>
+        <v>3.837841259993866</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8075663265284447</v>
+        <v>0.5401545422301126</v>
       </c>
       <c r="C7">
-        <v>0.1247230146703373</v>
+        <v>0.191529285351681</v>
       </c>
       <c r="D7">
-        <v>0.06124688255788868</v>
+        <v>0.04948443387607426</v>
       </c>
       <c r="E7">
-        <v>0.05595172334707321</v>
+        <v>0.1291354174775865</v>
       </c>
       <c r="F7">
-        <v>0.5749722056467022</v>
+        <v>1.057395047905999</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6658021842604569</v>
+        <v>0.2454251866440558</v>
       </c>
       <c r="L7">
-        <v>0.1263638972914123</v>
+        <v>0.1867937588204356</v>
       </c>
       <c r="M7">
-        <v>0.1734916240964886</v>
+        <v>0.1566454646001141</v>
       </c>
       <c r="N7">
-        <v>1.055473215871164</v>
+        <v>2.090759943645183</v>
       </c>
       <c r="O7">
-        <v>1.871617969809193</v>
+        <v>3.832393135265534</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9740914378375294</v>
+        <v>0.5848902359443571</v>
       </c>
       <c r="C8">
-        <v>0.126784845282188</v>
+        <v>0.1922404610967661</v>
       </c>
       <c r="D8">
-        <v>0.06822660904618516</v>
+        <v>0.05201858002065762</v>
       </c>
       <c r="E8">
-        <v>0.05707039632313027</v>
+        <v>0.1285203363893928</v>
       </c>
       <c r="F8">
-        <v>0.6065509922211731</v>
+        <v>1.056578110902478</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8058475148884838</v>
+        <v>0.2866214993039193</v>
       </c>
       <c r="L8">
-        <v>0.1435182129302817</v>
+        <v>0.1899828919965358</v>
       </c>
       <c r="M8">
-        <v>0.2067669926902553</v>
+        <v>0.1649456105347191</v>
       </c>
       <c r="N8">
-        <v>0.9972740457006886</v>
+        <v>2.065451509692149</v>
       </c>
       <c r="O8">
-        <v>1.915657865523428</v>
+        <v>3.812278885906636</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.304300127961966</v>
+        <v>0.6743749815221918</v>
       </c>
       <c r="C9">
-        <v>0.1309462702435695</v>
+        <v>0.1936669977813636</v>
       </c>
       <c r="D9">
-        <v>0.08178642270248559</v>
+        <v>0.05686666414210606</v>
       </c>
       <c r="E9">
-        <v>0.05985433982263721</v>
+        <v>0.1276859123111755</v>
       </c>
       <c r="F9">
-        <v>0.6770236930690743</v>
+        <v>1.059240366617026</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.081787161351713</v>
+        <v>0.3676102577206279</v>
       </c>
       <c r="L9">
-        <v>0.1784513015166311</v>
+        <v>0.1969512646506502</v>
       </c>
       <c r="M9">
-        <v>0.273146314029475</v>
+        <v>0.1818053654811251</v>
       </c>
       <c r="N9">
-        <v>0.8926558365535531</v>
+        <v>2.020646882275406</v>
       </c>
       <c r="O9">
-        <v>2.029477936842312</v>
+        <v>3.786931994741678</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.550076189802752</v>
+        <v>0.7411701001491906</v>
       </c>
       <c r="C10">
-        <v>0.1340845769449857</v>
+        <v>0.1947336084718714</v>
       </c>
       <c r="D10">
-        <v>0.09168810890681556</v>
+        <v>0.06035401061169665</v>
       </c>
       <c r="E10">
-        <v>0.06229668477157269</v>
+        <v>0.1272984062128799</v>
       </c>
       <c r="F10">
-        <v>0.7348174488818131</v>
+        <v>1.063792412862114</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.286025477021212</v>
+        <v>0.4272222574185207</v>
       </c>
       <c r="L10">
-        <v>0.2050672810213428</v>
+        <v>0.202504045389162</v>
       </c>
       <c r="M10">
-        <v>0.3228196375579842</v>
+        <v>0.1945435030925751</v>
       </c>
       <c r="N10">
-        <v>0.8220020091240006</v>
+        <v>1.990666286348572</v>
       </c>
       <c r="O10">
-        <v>2.132169397280677</v>
+        <v>3.776892552694846</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.662799430155047</v>
+        <v>0.7717809948949252</v>
       </c>
       <c r="C11">
-        <v>0.1355320563055074</v>
+        <v>0.1952226733141984</v>
       </c>
       <c r="D11">
-        <v>0.09618348381409447</v>
+        <v>0.06192420767510498</v>
       </c>
       <c r="E11">
-        <v>0.0635026895465316</v>
+        <v>0.1271708716254949</v>
       </c>
       <c r="F11">
-        <v>0.7626064685664602</v>
+        <v>1.066426347129209</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.379434137022145</v>
+        <v>0.4543624251345761</v>
       </c>
       <c r="L11">
-        <v>0.217420292941668</v>
+        <v>0.2051237213645862</v>
       </c>
       <c r="M11">
-        <v>0.3456653709512594</v>
+        <v>0.2004138683314949</v>
       </c>
       <c r="N11">
-        <v>0.7913051278685703</v>
+        <v>1.977664267174015</v>
       </c>
       <c r="O11">
-        <v>2.18357727280835</v>
+        <v>3.77418700178751</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.705636403249173</v>
+        <v>0.7834044611736317</v>
       </c>
       <c r="C12">
-        <v>0.1360832306551174</v>
+        <v>0.1954084061648587</v>
       </c>
       <c r="D12">
-        <v>0.09788481268861915</v>
+        <v>0.06251645292167041</v>
       </c>
       <c r="E12">
-        <v>0.06397379525935065</v>
+        <v>0.1271295672909645</v>
       </c>
       <c r="F12">
-        <v>0.7733617716829997</v>
+        <v>1.067504647034895</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.414892057156919</v>
+        <v>0.4646425558665044</v>
       </c>
       <c r="L12">
-        <v>0.2221366781610357</v>
+        <v>0.2061291401725782</v>
       </c>
       <c r="M12">
-        <v>0.3543567771850533</v>
+        <v>0.2026476106202253</v>
       </c>
       <c r="N12">
-        <v>0.7798974800972562</v>
+        <v>1.97283221280332</v>
       </c>
       <c r="O12">
-        <v>2.203767893775989</v>
+        <v>3.773429925600226</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.69640365577726</v>
+        <v>0.7808997362413095</v>
       </c>
       <c r="C13">
-        <v>0.1359643867078972</v>
+        <v>0.1953683818153351</v>
       </c>
       <c r="D13">
-        <v>0.09751843907270086</v>
+        <v>0.06238900738140529</v>
       </c>
       <c r="E13">
-        <v>0.06387168036023283</v>
+        <v>0.1271381523288042</v>
       </c>
       <c r="F13">
-        <v>0.7710348190504845</v>
+        <v>1.067268820010881</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.407251493289351</v>
+        <v>0.4624284316227829</v>
       </c>
       <c r="L13">
-        <v>0.2211191500937559</v>
+        <v>0.2059120101628622</v>
       </c>
       <c r="M13">
-        <v>0.3524830651193227</v>
+        <v>0.2021660576078546</v>
       </c>
       <c r="N13">
-        <v>0.7823445390858303</v>
+        <v>1.973868810952705</v>
       </c>
       <c r="O13">
-        <v>2.199386490678194</v>
+        <v>3.773581083710098</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.666320511085388</v>
+        <v>0.7727366310930108</v>
       </c>
       <c r="C14">
-        <v>0.1355773395552404</v>
+        <v>0.195237943067859</v>
       </c>
       <c r="D14">
-        <v>0.09632347076873771</v>
+        <v>0.0619729793623236</v>
       </c>
       <c r="E14">
-        <v>0.06354115421650874</v>
+        <v>0.1271673335071526</v>
       </c>
       <c r="F14">
-        <v>0.763486560306518</v>
+        <v>1.066513439003174</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.382349470961543</v>
+        <v>0.4552081255426117</v>
       </c>
       <c r="L14">
-        <v>0.2178075201826459</v>
+        <v>0.2052061695210767</v>
       </c>
       <c r="M14">
-        <v>0.3463795857656393</v>
+        <v>0.2005974246849505</v>
       </c>
       <c r="N14">
-        <v>0.7903622195221853</v>
+        <v>1.977264896621922</v>
       </c>
       <c r="O14">
-        <v>2.185223575243612</v>
+        <v>3.774119357669917</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.6479139854099</v>
+        <v>0.7677406139069376</v>
       </c>
       <c r="C15">
-        <v>0.1353406645861028</v>
+        <v>0.1951581145924237</v>
       </c>
       <c r="D15">
-        <v>0.09559140128632748</v>
+        <v>0.06171784291202442</v>
       </c>
       <c r="E15">
-        <v>0.06334059842182072</v>
+        <v>0.1271861175924691</v>
       </c>
       <c r="F15">
-        <v>0.7588937892703598</v>
+        <v>1.066061277133457</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.367107914238488</v>
+        <v>0.4507858219684522</v>
       </c>
       <c r="L15">
-        <v>0.2157841754278422</v>
+        <v>0.2047755653740921</v>
       </c>
       <c r="M15">
-        <v>0.3426464023766798</v>
+        <v>0.199637989548819</v>
       </c>
       <c r="N15">
-        <v>0.7953017632850337</v>
+        <v>1.979357017700188</v>
       </c>
       <c r="O15">
-        <v>2.176644112388914</v>
+        <v>3.774483890428684</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.542729542361656</v>
+        <v>0.7391740886672267</v>
       </c>
       <c r="C16">
-        <v>0.1339903960787936</v>
+        <v>0.1947017228433339</v>
       </c>
       <c r="D16">
-        <v>0.09139417194602828</v>
+        <v>0.06025106632875321</v>
       </c>
       <c r="E16">
-        <v>0.06221984460672125</v>
+        <v>0.12730772011939</v>
       </c>
       <c r="F16">
-        <v>0.7330329285163657</v>
+        <v>1.063631603329767</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.279932250048631</v>
+        <v>0.4254489928840997</v>
       </c>
       <c r="L16">
-        <v>0.2042651952237975</v>
+        <v>0.2023347228506793</v>
       </c>
       <c r="M16">
-        <v>0.3213319972851849</v>
+        <v>0.1941613738473151</v>
       </c>
       <c r="N16">
-        <v>0.8240379306957308</v>
+        <v>1.991528805311075</v>
       </c>
       <c r="O16">
-        <v>2.128908299837661</v>
+        <v>3.777106805330135</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.478450690516667</v>
+        <v>0.7217067441538063</v>
       </c>
       <c r="C17">
-        <v>0.1331672638726289</v>
+        <v>0.1944227150798099</v>
       </c>
       <c r="D17">
-        <v>0.08881723299737132</v>
+        <v>0.05934707739861977</v>
       </c>
       <c r="E17">
-        <v>0.06155714999978024</v>
+        <v>0.1273947902348134</v>
       </c>
       <c r="F17">
-        <v>0.7175634685419325</v>
+        <v>1.062285252098363</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.226590593333185</v>
+        <v>0.4099110581730656</v>
       </c>
       <c r="L17">
-        <v>0.1972637740637566</v>
+        <v>0.2008612925732649</v>
       </c>
       <c r="M17">
-        <v>0.3083231400715789</v>
+        <v>0.1908209519803492</v>
       </c>
       <c r="N17">
-        <v>0.8420426550599487</v>
+        <v>1.999158794896989</v>
       </c>
       <c r="O17">
-        <v>2.100859592737208</v>
+        <v>3.77919248503278</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.441564430969009</v>
+        <v>0.7116812490530435</v>
       </c>
       <c r="C18">
-        <v>0.1326956756531743</v>
+        <v>0.1942626015551312</v>
       </c>
       <c r="D18">
-        <v>0.08733418324924003</v>
+        <v>0.05882560206813991</v>
       </c>
       <c r="E18">
-        <v>0.06118487639066927</v>
+        <v>0.1274494598057476</v>
       </c>
       <c r="F18">
-        <v>0.708805811573157</v>
+        <v>1.061563882147418</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.195956000121612</v>
+        <v>0.4009761833241896</v>
       </c>
       <c r="L18">
-        <v>0.1932596180068913</v>
+        <v>0.2000226368922569</v>
       </c>
       <c r="M18">
-        <v>0.3008639543245692</v>
+        <v>0.1889067646117439</v>
       </c>
       <c r="N18">
-        <v>0.8525338331919627</v>
+        <v>2.003607253207342</v>
       </c>
       <c r="O18">
-        <v>2.085165346320082</v>
+        <v>3.780567333431748</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.429089456995712</v>
+        <v>0.7082904593768831</v>
       </c>
       <c r="C19">
-        <v>0.1325363171690199</v>
+        <v>0.1942084530649595</v>
       </c>
       <c r="D19">
-        <v>0.08683189064750252</v>
+        <v>0.05864877828440029</v>
       </c>
       <c r="E19">
-        <v>0.06106033548399736</v>
+        <v>0.1274687587541123</v>
       </c>
       <c r="F19">
-        <v>0.7058641661650285</v>
+        <v>1.061328747183033</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.18559115596878</v>
+        <v>0.3979513693472825</v>
       </c>
       <c r="L19">
-        <v>0.1919077115024095</v>
+        <v>0.1997401998168584</v>
       </c>
       <c r="M19">
-        <v>0.2983422513271705</v>
+        <v>0.1882598829400308</v>
       </c>
       <c r="N19">
-        <v>0.8561089462159579</v>
+        <v>2.005123710121858</v>
       </c>
       <c r="O19">
-        <v>2.07992544583297</v>
+        <v>3.781062934362069</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.485284328523818</v>
+        <v>0.7235639771262754</v>
       </c>
       <c r="C20">
-        <v>0.1332546943216215</v>
+        <v>0.1944523783688936</v>
       </c>
       <c r="D20">
-        <v>0.08909163960537825</v>
+        <v>0.0594434665392356</v>
       </c>
       <c r="E20">
-        <v>0.0616267694374546</v>
+        <v>0.1273850466515398</v>
       </c>
       <c r="F20">
-        <v>0.7191956150258463</v>
+        <v>1.062423087278859</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.232264030815315</v>
+        <v>0.4115648804272212</v>
       </c>
       <c r="L20">
-        <v>0.1980066964778899</v>
+        <v>0.2010172291430052</v>
       </c>
       <c r="M20">
-        <v>0.3097055266837714</v>
+        <v>0.1911758080665464</v>
       </c>
       <c r="N20">
-        <v>0.8401119514520214</v>
+        <v>1.998340370879689</v>
       </c>
       <c r="O20">
-        <v>2.10379968634021</v>
+        <v>3.778952327753018</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.675152399990623</v>
+        <v>0.775133475396018</v>
       </c>
       <c r="C21">
-        <v>0.13569094041911</v>
+        <v>0.1952762417421496</v>
       </c>
       <c r="D21">
-        <v>0.09667448569537385</v>
+        <v>0.0620952409528357</v>
       </c>
       <c r="E21">
-        <v>0.0636378401638602</v>
+        <v>0.1271585727262341</v>
       </c>
       <c r="F21">
-        <v>0.765697226045134</v>
+        <v>1.066733118282968</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.389661343651824</v>
+        <v>0.4573288339638282</v>
       </c>
       <c r="L21">
-        <v>0.2187791520962605</v>
+        <v>0.2054131287788294</v>
       </c>
       <c r="M21">
-        <v>0.3481711973954305</v>
+        <v>0.2010578791196664</v>
       </c>
       <c r="N21">
-        <v>0.788001279779893</v>
+        <v>1.976264899653259</v>
       </c>
       <c r="O21">
-        <v>2.189363524865769</v>
+        <v>3.77395399656848</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.800132849769597</v>
+        <v>0.8090220938199479</v>
       </c>
       <c r="C22">
-        <v>0.1373010211878167</v>
+        <v>0.1958177908856698</v>
       </c>
       <c r="D22">
-        <v>0.1016248089865499</v>
+        <v>0.06381459554159363</v>
       </c>
       <c r="E22">
-        <v>0.06503661648671866</v>
+        <v>0.1270512945971021</v>
       </c>
       <c r="F22">
-        <v>0.7974507519565606</v>
+        <v>1.070021392605767</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.493038716975747</v>
+        <v>0.4872539609879993</v>
       </c>
       <c r="L22">
-        <v>0.2325816419594702</v>
+        <v>0.2083642026055088</v>
       </c>
       <c r="M22">
-        <v>0.3735474466467537</v>
+        <v>0.2075790563325768</v>
       </c>
       <c r="N22">
-        <v>0.7552110088839861</v>
+        <v>1.962370813901517</v>
       </c>
       <c r="O22">
-        <v>2.249526960677741</v>
+        <v>3.772246143260304</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.733340292895775</v>
+        <v>0.7909183860223266</v>
       </c>
       <c r="C23">
-        <v>0.1364399890368162</v>
+        <v>0.1955284782939373</v>
       </c>
       <c r="D23">
-        <v>0.09898312256922281</v>
+        <v>0.06289820775998578</v>
       </c>
       <c r="E23">
-        <v>0.06428207460902158</v>
+        <v>0.1271048299292552</v>
       </c>
       <c r="F23">
-        <v>0.7803728502123732</v>
+        <v>1.068223276732951</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.437812710186364</v>
+        <v>0.4712810758240096</v>
       </c>
       <c r="L23">
-        <v>0.2251931231825637</v>
+        <v>0.2067820353483398</v>
       </c>
       <c r="M23">
-        <v>0.3599804724044944</v>
+        <v>0.2040928886248423</v>
       </c>
       <c r="N23">
-        <v>0.7725927418023435</v>
+        <v>1.969737522654251</v>
       </c>
       <c r="O23">
-        <v>2.21701145824477</v>
+        <v>3.773015093655914</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.482194628816757</v>
+        <v>0.7227242699898397</v>
       </c>
       <c r="C24">
-        <v>0.1332151619179669</v>
+        <v>0.194438966686306</v>
       </c>
       <c r="D24">
-        <v>0.08896758517714431</v>
+        <v>0.0593998944896299</v>
       </c>
       <c r="E24">
-        <v>0.0615952673910023</v>
+        <v>0.1273894373591169</v>
       </c>
       <c r="F24">
-        <v>0.7184572994259781</v>
+        <v>1.062360607937435</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.229698970387062</v>
+        <v>0.4108171932975608</v>
       </c>
       <c r="L24">
-        <v>0.197670755922104</v>
+        <v>0.2009467039286932</v>
       </c>
       <c r="M24">
-        <v>0.3090804884169742</v>
+        <v>0.1910153581039111</v>
       </c>
       <c r="N24">
-        <v>0.8409843870864293</v>
+        <v>1.998710187638421</v>
       </c>
       <c r="O24">
-        <v>2.10246913017582</v>
+        <v>3.77906035534923</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.214484784142314</v>
+        <v>0.649980945936079</v>
       </c>
       <c r="C25">
-        <v>0.1298069766684549</v>
+        <v>0.1932777604035181</v>
       </c>
       <c r="D25">
-        <v>0.07813007962386109</v>
+        <v>0.05556817897035415</v>
       </c>
       <c r="E25">
-        <v>0.05903430727393832</v>
+        <v>0.1278719599607729</v>
       </c>
       <c r="F25">
-        <v>0.6569635020579199</v>
+        <v>1.058063999417129</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.006927587969443</v>
+        <v>0.3456803888757634</v>
       </c>
       <c r="L25">
-        <v>0.1688463312342563</v>
+        <v>0.1949898972847421</v>
       </c>
       <c r="M25">
-        <v>0.2550466682285837</v>
+        <v>0.1771823592733206</v>
       </c>
       <c r="N25">
-        <v>0.9198987585238783</v>
+        <v>2.032251598489729</v>
       </c>
       <c r="O25">
-        <v>1.995515040875574</v>
+        <v>3.792280953399654</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_179/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_179/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5971311412731666</v>
+        <v>1.019425598134006</v>
       </c>
       <c r="C2">
-        <v>0.1924353492520439</v>
+        <v>0.1273511953258719</v>
       </c>
       <c r="D2">
-        <v>0.05269701357153878</v>
+        <v>0.07010854657221444</v>
       </c>
       <c r="E2">
-        <v>0.1283788784727946</v>
+        <v>0.05741213496001407</v>
       </c>
       <c r="F2">
-        <v>1.056645474702485</v>
+        <v>0.6156573393350513</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2977978958269034</v>
+        <v>0.8438568517781562</v>
       </c>
       <c r="L2">
-        <v>0.190895431617605</v>
+        <v>0.1482480226075182</v>
       </c>
       <c r="M2">
-        <v>0.1672341601680039</v>
+        <v>0.2158515529873135</v>
       </c>
       <c r="N2">
-        <v>2.058920891053223</v>
+        <v>0.98213418732146</v>
       </c>
       <c r="O2">
-        <v>3.807783358460938</v>
+        <v>1.929367056215398</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5617636639494776</v>
+        <v>0.8881987070051309</v>
       </c>
       <c r="C3">
-        <v>0.191872575847384</v>
+        <v>0.1257173893575256</v>
       </c>
       <c r="D3">
-        <v>0.05072020775980945</v>
+        <v>0.06464038686146267</v>
       </c>
       <c r="E3">
-        <v>0.1288173709433948</v>
+        <v>0.05646482117068174</v>
       </c>
       <c r="F3">
-        <v>1.056773709657563</v>
+        <v>0.5898742027532009</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2653995575083883</v>
+        <v>0.7337021563859025</v>
       </c>
       <c r="L3">
-        <v>0.1883031288399621</v>
+        <v>0.1346243956156457</v>
       </c>
       <c r="M3">
-        <v>0.1606412002114723</v>
+        <v>0.1895840267461786</v>
       </c>
       <c r="N3">
-        <v>2.078227358966036</v>
+        <v>1.026754031135537</v>
       </c>
       <c r="O3">
-        <v>3.821891200383789</v>
+        <v>1.891629684954552</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5402721185319876</v>
+        <v>0.8080062476841192</v>
       </c>
       <c r="C4">
-        <v>0.1915311518114606</v>
+        <v>0.1247284170669438</v>
       </c>
       <c r="D4">
-        <v>0.04949122407793993</v>
+        <v>0.06126547355979994</v>
       </c>
       <c r="E4">
-        <v>0.129133568108367</v>
+        <v>0.05595436409313237</v>
       </c>
       <c r="F4">
-        <v>1.057390381254947</v>
+        <v>0.5750513701978619</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2455342934937903</v>
+        <v>0.6661731351187967</v>
       </c>
       <c r="L4">
-        <v>0.1868017948968799</v>
+        <v>0.1264087132188436</v>
       </c>
       <c r="M4">
-        <v>0.1566671286469159</v>
+        <v>0.1735793136793831</v>
       </c>
       <c r="N4">
-        <v>2.090690007393814</v>
+        <v>1.055313548735572</v>
       </c>
       <c r="O4">
-        <v>3.832331535255662</v>
+        <v>1.871719921677084</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5315711090177047</v>
+        <v>0.7754102231479578</v>
       </c>
       <c r="C5">
-        <v>0.1913930744882997</v>
+        <v>0.1243288633790094</v>
       </c>
       <c r="D5">
-        <v>0.04898659570405783</v>
+        <v>0.0598855656754651</v>
       </c>
       <c r="E5">
-        <v>0.1292742507470468</v>
+        <v>0.05576371956360227</v>
       </c>
       <c r="F5">
-        <v>1.057777067769464</v>
+        <v>0.5692529531781716</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.237446367137494</v>
+        <v>0.638671752482395</v>
       </c>
       <c r="L5">
-        <v>0.1862127748919349</v>
+        <v>0.123096028135997</v>
       </c>
       <c r="M5">
-        <v>0.155066396244159</v>
+        <v>0.1670853668222669</v>
       </c>
       <c r="N5">
-        <v>2.095921657825531</v>
+        <v>1.067238092919478</v>
       </c>
       <c r="O5">
-        <v>3.837033474484059</v>
+        <v>1.864393331766635</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5301297710824713</v>
+        <v>0.7700023311658697</v>
       </c>
       <c r="C6">
-        <v>0.1913702111909501</v>
+        <v>0.1242627238214382</v>
       </c>
       <c r="D6">
-        <v>0.04890257313589075</v>
+        <v>0.05965614885452908</v>
       </c>
       <c r="E6">
-        <v>0.1292983260959915</v>
+        <v>0.05573309720695363</v>
       </c>
       <c r="F6">
-        <v>1.057849457388812</v>
+        <v>0.5683044209408052</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2361038284507799</v>
+        <v>0.6341059416018737</v>
       </c>
       <c r="L6">
-        <v>0.1861163467264291</v>
+        <v>0.1225480254168687</v>
       </c>
       <c r="M6">
-        <v>0.1548017308077547</v>
+        <v>0.1660086646620549</v>
       </c>
       <c r="N6">
-        <v>2.096799612436002</v>
+        <v>1.069235274408104</v>
       </c>
       <c r="O6">
-        <v>3.837841259993866</v>
+        <v>1.863223334880686</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5401545422301126</v>
+        <v>0.8075663265285016</v>
       </c>
       <c r="C7">
-        <v>0.191529285351681</v>
+        <v>0.1247230146704226</v>
       </c>
       <c r="D7">
-        <v>0.04948443387607426</v>
+        <v>0.06124688255783184</v>
       </c>
       <c r="E7">
-        <v>0.1291354174775865</v>
+        <v>0.05595172334707676</v>
       </c>
       <c r="F7">
-        <v>1.057395047905999</v>
+        <v>0.5749722056467164</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2454251866440558</v>
+        <v>0.6658021842604569</v>
       </c>
       <c r="L7">
-        <v>0.1867937588204356</v>
+        <v>0.126363897291462</v>
       </c>
       <c r="M7">
-        <v>0.1566454646001141</v>
+        <v>0.1734916240964779</v>
       </c>
       <c r="N7">
-        <v>2.090759943645183</v>
+        <v>1.055473215871107</v>
       </c>
       <c r="O7">
-        <v>3.832393135265534</v>
+        <v>1.871617969809179</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5848902359443571</v>
+        <v>0.9740914378376715</v>
       </c>
       <c r="C8">
-        <v>0.1922404610967661</v>
+        <v>0.1267848452824296</v>
       </c>
       <c r="D8">
-        <v>0.05201858002065762</v>
+        <v>0.06822660904618516</v>
       </c>
       <c r="E8">
-        <v>0.1285203363893928</v>
+        <v>0.05707039632313204</v>
       </c>
       <c r="F8">
-        <v>1.056578110902478</v>
+        <v>0.6065509922211874</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2866214993039193</v>
+        <v>0.8058475148884554</v>
       </c>
       <c r="L8">
-        <v>0.1899828919965358</v>
+        <v>0.1435182129301467</v>
       </c>
       <c r="M8">
-        <v>0.1649456105347191</v>
+        <v>0.2067669926902482</v>
       </c>
       <c r="N8">
-        <v>2.065451509692149</v>
+        <v>0.9972740457007419</v>
       </c>
       <c r="O8">
-        <v>3.812278885906636</v>
+        <v>1.9156578655234</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6743749815221918</v>
+        <v>1.304300127961966</v>
       </c>
       <c r="C9">
-        <v>0.1936669977813636</v>
+        <v>0.1309462702438111</v>
       </c>
       <c r="D9">
-        <v>0.05686666414210606</v>
+        <v>0.08178642270225822</v>
       </c>
       <c r="E9">
-        <v>0.1276859123111755</v>
+        <v>0.05985433982264787</v>
       </c>
       <c r="F9">
-        <v>1.059240366617026</v>
+        <v>0.6770236930691027</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3676102577206279</v>
+        <v>1.08178716135177</v>
       </c>
       <c r="L9">
-        <v>0.1969512646506502</v>
+        <v>0.1784513015166169</v>
       </c>
       <c r="M9">
-        <v>0.1818053654811251</v>
+        <v>0.2731463140294892</v>
       </c>
       <c r="N9">
-        <v>2.020646882275406</v>
+        <v>0.892655836553617</v>
       </c>
       <c r="O9">
-        <v>3.786931994741678</v>
+        <v>2.029477936842426</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7411701001491906</v>
+        <v>1.55007618980261</v>
       </c>
       <c r="C10">
-        <v>0.1947336084718714</v>
+        <v>0.1340845769447583</v>
       </c>
       <c r="D10">
-        <v>0.06035401061169665</v>
+        <v>0.09168810890670187</v>
       </c>
       <c r="E10">
-        <v>0.1272984062128799</v>
+        <v>0.06229668477159045</v>
       </c>
       <c r="F10">
-        <v>1.063792412862114</v>
+        <v>0.7348174488817989</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4272222574185207</v>
+        <v>1.286025477021155</v>
       </c>
       <c r="L10">
-        <v>0.202504045389162</v>
+        <v>0.2050672810213428</v>
       </c>
       <c r="M10">
-        <v>0.1945435030925751</v>
+        <v>0.3228196375579699</v>
       </c>
       <c r="N10">
-        <v>1.990666286348572</v>
+        <v>0.8220020091240539</v>
       </c>
       <c r="O10">
-        <v>3.776892552694846</v>
+        <v>2.132169397280563</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7717809948949252</v>
+        <v>1.662799430154735</v>
       </c>
       <c r="C11">
-        <v>0.1952226733141984</v>
+        <v>0.1355320563053866</v>
       </c>
       <c r="D11">
-        <v>0.06192420767510498</v>
+        <v>0.09618348381420105</v>
       </c>
       <c r="E11">
-        <v>0.1271708716254949</v>
+        <v>0.06350268954652805</v>
       </c>
       <c r="F11">
-        <v>1.066426347129209</v>
+        <v>0.7626064685664744</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4543624251345761</v>
+        <v>1.379434137022344</v>
       </c>
       <c r="L11">
-        <v>0.2051237213645862</v>
+        <v>0.217420292941668</v>
       </c>
       <c r="M11">
-        <v>0.2004138683314949</v>
+        <v>0.3456653709512452</v>
       </c>
       <c r="N11">
-        <v>1.977664267174015</v>
+        <v>0.7913051278686183</v>
       </c>
       <c r="O11">
-        <v>3.77418700178751</v>
+        <v>2.183577272808407</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7834044611736317</v>
+        <v>1.70563640324923</v>
       </c>
       <c r="C12">
-        <v>0.1954084061648587</v>
+        <v>0.1360832306551103</v>
       </c>
       <c r="D12">
-        <v>0.06251645292167041</v>
+        <v>0.09788481268851257</v>
       </c>
       <c r="E12">
-        <v>0.1271295672909645</v>
+        <v>0.06397379525935065</v>
       </c>
       <c r="F12">
-        <v>1.067504647034895</v>
+        <v>0.7733617716829997</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4646425558665044</v>
+        <v>1.414892057156862</v>
       </c>
       <c r="L12">
-        <v>0.2061291401725782</v>
+        <v>0.2221366781610357</v>
       </c>
       <c r="M12">
-        <v>0.2026476106202253</v>
+        <v>0.3543567771850391</v>
       </c>
       <c r="N12">
-        <v>1.97283221280332</v>
+        <v>0.7798974800972456</v>
       </c>
       <c r="O12">
-        <v>3.773429925600226</v>
+        <v>2.203767893775932</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7808997362413095</v>
+        <v>1.696403655777374</v>
       </c>
       <c r="C13">
-        <v>0.1953683818153351</v>
+        <v>0.1359643867083662</v>
       </c>
       <c r="D13">
-        <v>0.06238900738140529</v>
+        <v>0.09751843907259428</v>
       </c>
       <c r="E13">
-        <v>0.1271381523288042</v>
+        <v>0.06387168036022928</v>
       </c>
       <c r="F13">
-        <v>1.067268820010881</v>
+        <v>0.7710348190504845</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4624284316227829</v>
+        <v>1.407251493289266</v>
       </c>
       <c r="L13">
-        <v>0.2059120101628622</v>
+        <v>0.2211191500937275</v>
       </c>
       <c r="M13">
-        <v>0.2021660576078546</v>
+        <v>0.3524830651193156</v>
       </c>
       <c r="N13">
-        <v>1.973868810952705</v>
+        <v>0.7823445390858268</v>
       </c>
       <c r="O13">
-        <v>3.773581083710098</v>
+        <v>2.199386490678137</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7727366310930108</v>
+        <v>1.666320511085445</v>
       </c>
       <c r="C14">
-        <v>0.195237943067859</v>
+        <v>0.1355773395552404</v>
       </c>
       <c r="D14">
-        <v>0.0619729793623236</v>
+        <v>0.09632347076863823</v>
       </c>
       <c r="E14">
-        <v>0.1271673335071526</v>
+        <v>0.0635411542165194</v>
       </c>
       <c r="F14">
-        <v>1.066513439003174</v>
+        <v>0.7634865603065322</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4552081255426117</v>
+        <v>1.3823494709616</v>
       </c>
       <c r="L14">
-        <v>0.2052061695210767</v>
+        <v>0.2178075201826601</v>
       </c>
       <c r="M14">
-        <v>0.2005974246849505</v>
+        <v>0.3463795857656322</v>
       </c>
       <c r="N14">
-        <v>1.977264896621922</v>
+        <v>0.7903622195222084</v>
       </c>
       <c r="O14">
-        <v>3.774119357669917</v>
+        <v>2.185223575243697</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7677406139069376</v>
+        <v>1.647913985409815</v>
       </c>
       <c r="C15">
-        <v>0.1951581145924237</v>
+        <v>0.1353406645862094</v>
       </c>
       <c r="D15">
-        <v>0.06171784291202442</v>
+        <v>0.0955914012862209</v>
       </c>
       <c r="E15">
-        <v>0.1271861175924691</v>
+        <v>0.06334059842181716</v>
       </c>
       <c r="F15">
-        <v>1.066061277133457</v>
+        <v>0.758893789270374</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4507858219684522</v>
+        <v>1.36710791423846</v>
       </c>
       <c r="L15">
-        <v>0.2047755653740921</v>
+        <v>0.2157841754278564</v>
       </c>
       <c r="M15">
-        <v>0.199637989548819</v>
+        <v>0.3426464023766869</v>
       </c>
       <c r="N15">
-        <v>1.979357017700188</v>
+        <v>0.795301763285023</v>
       </c>
       <c r="O15">
-        <v>3.774483890428684</v>
+        <v>2.176644112388885</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7391740886672267</v>
+        <v>1.542729542361656</v>
       </c>
       <c r="C16">
-        <v>0.1947017228433339</v>
+        <v>0.1339903960787936</v>
       </c>
       <c r="D16">
-        <v>0.06025106632875321</v>
+        <v>0.09139417194613486</v>
       </c>
       <c r="E16">
-        <v>0.12730772011939</v>
+        <v>0.06221984460672303</v>
       </c>
       <c r="F16">
-        <v>1.063631603329767</v>
+        <v>0.7330329285163657</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4254489928840997</v>
+        <v>1.279932250048631</v>
       </c>
       <c r="L16">
-        <v>0.2023347228506793</v>
+        <v>0.2042651952237975</v>
       </c>
       <c r="M16">
-        <v>0.1941613738473151</v>
+        <v>0.3213319972851849</v>
       </c>
       <c r="N16">
-        <v>1.991528805311075</v>
+        <v>0.8240379306957344</v>
       </c>
       <c r="O16">
-        <v>3.777106805330135</v>
+        <v>2.128908299837661</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7217067441538063</v>
+        <v>1.478450690516695</v>
       </c>
       <c r="C17">
-        <v>0.1944227150798099</v>
+        <v>0.1331672638730481</v>
       </c>
       <c r="D17">
-        <v>0.05934707739861977</v>
+        <v>0.08881723299737843</v>
       </c>
       <c r="E17">
-        <v>0.1273947902348134</v>
+        <v>0.0615571499997607</v>
       </c>
       <c r="F17">
-        <v>1.062285252098363</v>
+        <v>0.7175634685419396</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4099110581730656</v>
+        <v>1.226590593333043</v>
       </c>
       <c r="L17">
-        <v>0.2008612925732649</v>
+        <v>0.1972637740638277</v>
       </c>
       <c r="M17">
-        <v>0.1908209519803492</v>
+        <v>0.3083231400715789</v>
       </c>
       <c r="N17">
-        <v>1.999158794896989</v>
+        <v>0.8420426550599593</v>
       </c>
       <c r="O17">
-        <v>3.77919248503278</v>
+        <v>2.100859592737265</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7116812490530435</v>
+        <v>1.441564430968839</v>
       </c>
       <c r="C18">
-        <v>0.1942626015551312</v>
+        <v>0.1326956756532809</v>
       </c>
       <c r="D18">
-        <v>0.05882560206813991</v>
+        <v>0.08733418324941056</v>
       </c>
       <c r="E18">
-        <v>0.1274494598057476</v>
+        <v>0.06118487639068704</v>
       </c>
       <c r="F18">
-        <v>1.061563882147418</v>
+        <v>0.7088058115731499</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4009761833241896</v>
+        <v>1.195956000121583</v>
       </c>
       <c r="L18">
-        <v>0.2000226368922569</v>
+        <v>0.1932596180069339</v>
       </c>
       <c r="M18">
-        <v>0.1889067646117439</v>
+        <v>0.3008639543245835</v>
       </c>
       <c r="N18">
-        <v>2.003607253207342</v>
+        <v>0.8525338331920036</v>
       </c>
       <c r="O18">
-        <v>3.780567333431748</v>
+        <v>2.085165346320082</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7082904593768831</v>
+        <v>1.429089456995712</v>
       </c>
       <c r="C19">
-        <v>0.1942084530649595</v>
+        <v>0.1325363171692615</v>
       </c>
       <c r="D19">
-        <v>0.05864877828440029</v>
+        <v>0.08683189064763042</v>
       </c>
       <c r="E19">
-        <v>0.1274687587541123</v>
+        <v>0.06106033548401513</v>
       </c>
       <c r="F19">
-        <v>1.061328747183033</v>
+        <v>0.7058641661650285</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3979513693472825</v>
+        <v>1.185591155968837</v>
       </c>
       <c r="L19">
-        <v>0.1997401998168584</v>
+        <v>0.1919077115024663</v>
       </c>
       <c r="M19">
-        <v>0.1882598829400308</v>
+        <v>0.2983422513271847</v>
       </c>
       <c r="N19">
-        <v>2.005123710121858</v>
+        <v>0.8561089462159472</v>
       </c>
       <c r="O19">
-        <v>3.781062934362069</v>
+        <v>2.079925445832998</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7235639771262754</v>
+        <v>1.485284328523932</v>
       </c>
       <c r="C20">
-        <v>0.1944523783688936</v>
+        <v>0.1332546943218631</v>
       </c>
       <c r="D20">
-        <v>0.0594434665392356</v>
+        <v>0.08909163960538535</v>
       </c>
       <c r="E20">
-        <v>0.1273850466515398</v>
+        <v>0.06162676943744572</v>
       </c>
       <c r="F20">
-        <v>1.062423087278859</v>
+        <v>0.7191956150258392</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4115648804272212</v>
+        <v>1.232264030815287</v>
       </c>
       <c r="L20">
-        <v>0.2010172291430052</v>
+        <v>0.1980066964777905</v>
       </c>
       <c r="M20">
-        <v>0.1911758080665464</v>
+        <v>0.3097055266837856</v>
       </c>
       <c r="N20">
-        <v>1.998340370879689</v>
+        <v>0.8401119514520214</v>
       </c>
       <c r="O20">
-        <v>3.778952327753018</v>
+        <v>2.103799686340153</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.775133475396018</v>
+        <v>1.675152399990509</v>
       </c>
       <c r="C21">
-        <v>0.1952762417421496</v>
+        <v>0.1356909404193303</v>
       </c>
       <c r="D21">
-        <v>0.0620952409528357</v>
+        <v>0.09667448569538095</v>
       </c>
       <c r="E21">
-        <v>0.1271585727262341</v>
+        <v>0.06363784016385665</v>
       </c>
       <c r="F21">
-        <v>1.066733118282968</v>
+        <v>0.765697226045134</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4573288339638282</v>
+        <v>1.389661343651824</v>
       </c>
       <c r="L21">
-        <v>0.2054131287788294</v>
+        <v>0.218779152096289</v>
       </c>
       <c r="M21">
-        <v>0.2010578791196664</v>
+        <v>0.3481711973954233</v>
       </c>
       <c r="N21">
-        <v>1.976264899653259</v>
+        <v>0.7880012797799072</v>
       </c>
       <c r="O21">
-        <v>3.77395399656848</v>
+        <v>2.189363524865712</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8090220938199479</v>
+        <v>1.800132849769625</v>
       </c>
       <c r="C22">
-        <v>0.1958177908856698</v>
+        <v>0.1373010211880512</v>
       </c>
       <c r="D22">
-        <v>0.06381459554159363</v>
+        <v>0.1016248089866565</v>
       </c>
       <c r="E22">
-        <v>0.1270512945971021</v>
+        <v>0.06503661648670445</v>
       </c>
       <c r="F22">
-        <v>1.070021392605767</v>
+        <v>0.7974507519565464</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4872539609879993</v>
+        <v>1.493038716975889</v>
       </c>
       <c r="L22">
-        <v>0.2083642026055088</v>
+        <v>0.2325816419594133</v>
       </c>
       <c r="M22">
-        <v>0.2075790563325768</v>
+        <v>0.3735474466467394</v>
       </c>
       <c r="N22">
-        <v>1.962370813901517</v>
+        <v>0.7552110088839861</v>
       </c>
       <c r="O22">
-        <v>3.772246143260304</v>
+        <v>2.249526960677713</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7909183860223266</v>
+        <v>1.733340292895718</v>
       </c>
       <c r="C23">
-        <v>0.1955284782939373</v>
+        <v>0.1364399890368375</v>
       </c>
       <c r="D23">
-        <v>0.06289820775998578</v>
+        <v>0.09898312256934361</v>
       </c>
       <c r="E23">
-        <v>0.1271048299292552</v>
+        <v>0.06428207460902158</v>
       </c>
       <c r="F23">
-        <v>1.068223276732951</v>
+        <v>0.780372850212359</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4712810758240096</v>
+        <v>1.437812710186392</v>
       </c>
       <c r="L23">
-        <v>0.2067820353483398</v>
+        <v>0.2251931231826063</v>
       </c>
       <c r="M23">
-        <v>0.2040928886248423</v>
+        <v>0.3599804724045015</v>
       </c>
       <c r="N23">
-        <v>1.969737522654251</v>
+        <v>0.7725927418023346</v>
       </c>
       <c r="O23">
-        <v>3.773015093655914</v>
+        <v>2.21701145824477</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7227242699898397</v>
+        <v>1.482194628816529</v>
       </c>
       <c r="C24">
-        <v>0.194438966686306</v>
+        <v>0.1332151619174979</v>
       </c>
       <c r="D24">
-        <v>0.0593998944896299</v>
+        <v>0.08896758517720116</v>
       </c>
       <c r="E24">
-        <v>0.1273894373591169</v>
+        <v>0.06159526739098808</v>
       </c>
       <c r="F24">
-        <v>1.062360607937435</v>
+        <v>0.7184572994259781</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4108171932975608</v>
+        <v>1.229698970387147</v>
       </c>
       <c r="L24">
-        <v>0.2009467039286932</v>
+        <v>0.197670755922104</v>
       </c>
       <c r="M24">
-        <v>0.1910153581039111</v>
+        <v>0.3090804884169671</v>
       </c>
       <c r="N24">
-        <v>1.998710187638421</v>
+        <v>0.8409843870864329</v>
       </c>
       <c r="O24">
-        <v>3.77906035534923</v>
+        <v>2.102469130175763</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.649980945936079</v>
+        <v>1.214484784142314</v>
       </c>
       <c r="C25">
-        <v>0.1932777604035181</v>
+        <v>0.1298069766683696</v>
       </c>
       <c r="D25">
-        <v>0.05556817897035415</v>
+        <v>0.07813007962358398</v>
       </c>
       <c r="E25">
-        <v>0.1278719599607729</v>
+        <v>0.05903430727394365</v>
       </c>
       <c r="F25">
-        <v>1.058063999417129</v>
+        <v>0.6569635020579057</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3456803888757634</v>
+        <v>1.006927587969471</v>
       </c>
       <c r="L25">
-        <v>0.1949898972847421</v>
+        <v>0.1688463312342634</v>
       </c>
       <c r="M25">
-        <v>0.1771823592733206</v>
+        <v>0.2550466682285624</v>
       </c>
       <c r="N25">
-        <v>2.032251598489729</v>
+        <v>0.9198987585239546</v>
       </c>
       <c r="O25">
-        <v>3.792280953399654</v>
+        <v>1.995515040875603</v>
       </c>
     </row>
   </sheetData>
